--- a/ss/荷物配達管理システム.xlsx
+++ b/ss/荷物配達管理システム.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaku\Desktop\スキールシート\原本\N\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\ss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D416202-4D8E-4359-BF12-E78D3E69A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC33E6-91C9-4F2E-9A9B-737FDF3FD948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1180" yWindow="1040" windowWidth="15630" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>システム概要：</t>
     <rPh sb="4" eb="6">
@@ -735,12 +735,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>重点</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +793,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -834,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -846,9 +857,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1354,292 +1366,301 @@
   <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="20" spans="3:16" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="3:16" ht="20" x14ac:dyDescent="0.6">
+    <row r="20" spans="3:16" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="3:16" ht="19.8" x14ac:dyDescent="0.5">
       <c r="O24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P24" s="8"/>
     </row>
-    <row r="32" spans="3:16" ht="20" x14ac:dyDescent="0.6">
+    <row r="32" spans="3:16" ht="19.8" x14ac:dyDescent="0.5">
       <c r="O32" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="15:15" ht="20" x14ac:dyDescent="0.6">
+    <row r="48" spans="15:15" ht="19.8" x14ac:dyDescent="0.5">
       <c r="O48" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="15:15" ht="20" x14ac:dyDescent="0.6">
+    <row r="57" spans="15:15" ht="19.8" x14ac:dyDescent="0.5">
       <c r="O57" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="4:15" ht="20" x14ac:dyDescent="0.6">
+    <row r="65" spans="4:15" ht="19.8" x14ac:dyDescent="0.5">
       <c r="O65" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D78" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D79" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="4:15" x14ac:dyDescent="0.45">
       <c r="D80" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D81" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D86" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D88" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="E88" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F92" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D94" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="E94" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E96" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E97" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D100" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E100" s="6"/>
     </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E102" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E104" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F105" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F106" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F107" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E109" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E111" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F113" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F114" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D116" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="E116" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F119" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F120" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D122" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E122" s="6"/>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E124" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="4:7" x14ac:dyDescent="0.45">
       <c r="E126" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F127" t="s">
         <v>42</v>
       </c>
